--- a/lab1_byot/examples/example4.xlsx
+++ b/lab1_byot/examples/example4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CB32C2-8926-0442-AE58-D3BB52E2CC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7FF5AB-775D-BC42-AD7D-63EAA068893A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75860" yWindow="1000" windowWidth="34560" windowHeight="20340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75860" yWindow="1000" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>vsrx3</t>
   </si>
   <si>
-    <t>23.1R1.8</t>
-  </si>
-  <si>
     <t>vr</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>S-15</t>
+  </si>
+  <si>
+    <t>23.2R1.13</t>
   </si>
 </sst>
 </file>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:O3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -817,43 +817,43 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="L3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1593,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I13" sqref="I13:L13"/>
     </sheetView>
   </sheetViews>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1638,45 +1638,45 @@
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1703,37 +1703,37 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1773,37 +1773,37 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1843,37 +1843,37 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1913,37 +1913,37 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1983,37 +1983,37 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="H11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2053,37 +2053,37 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2536,13 +2536,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -2552,6 +2545,13 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2704,16 +2704,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/lab1_byot/examples/example4.xlsx
+++ b/lab1_byot/examples/example4.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7FF5AB-775D-BC42-AD7D-63EAA068893A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E01CB-1FD8-1548-989D-0AAF926D205B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75860" yWindow="1000" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75860" yWindow="1000" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
-    <sheet name="VEX" sheetId="2" r:id="rId2"/>
-    <sheet name="VEVO" sheetId="3" r:id="rId3"/>
-    <sheet name="APSTRA" sheetId="4" r:id="rId4"/>
-    <sheet name="LINUX" sheetId="5" r:id="rId5"/>
+    <sheet name="VROUTER" sheetId="6" r:id="rId2"/>
+    <sheet name="VEX" sheetId="2" r:id="rId3"/>
+    <sheet name="VEVO" sheetId="3" r:id="rId4"/>
+    <sheet name="APSTRA" sheetId="4" r:id="rId5"/>
+    <sheet name="LINUX" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -246,6 +247,153 @@
   </si>
   <si>
     <t>23.2R1.13</t>
+  </si>
+  <si>
+    <t>ge-0/0/12</t>
+  </si>
+  <si>
+    <t>lab3_pod1_leaf_1</t>
+  </si>
+  <si>
+    <t>vrouter</t>
+  </si>
+  <si>
+    <t>23.2R1.14</t>
+  </si>
+  <si>
+    <t>S-25</t>
+  </si>
+  <si>
+    <t>S-26</t>
+  </si>
+  <si>
+    <t>lab3_pod1_leaf_2</t>
+  </si>
+  <si>
+    <t>S-27</t>
+  </si>
+  <si>
+    <t>S-28</t>
+  </si>
+  <si>
+    <t>lab3_pod1_leaf_3</t>
+  </si>
+  <si>
+    <t>S-29</t>
+  </si>
+  <si>
+    <t>S-30</t>
+  </si>
+  <si>
+    <t>lab3_pod1_leaf_4</t>
+  </si>
+  <si>
+    <t>S-32</t>
+  </si>
+  <si>
+    <t>S-31</t>
+  </si>
+  <si>
+    <t>lab3_pod1_spine_1</t>
+  </si>
+  <si>
+    <t>S-17</t>
+  </si>
+  <si>
+    <t>S-18</t>
+  </si>
+  <si>
+    <t>lab3_pod1_spine_2</t>
+  </si>
+  <si>
+    <t>S-19</t>
+  </si>
+  <si>
+    <t>S-20</t>
+  </si>
+  <si>
+    <t>lab3_pod2_leaf_1</t>
+  </si>
+  <si>
+    <t>192.168.122.117</t>
+  </si>
+  <si>
+    <t>S-33</t>
+  </si>
+  <si>
+    <t>S-34</t>
+  </si>
+  <si>
+    <t>lab3_pod2_leaf_2</t>
+  </si>
+  <si>
+    <t>192.168.122.118</t>
+  </si>
+  <si>
+    <t>S-35</t>
+  </si>
+  <si>
+    <t>S-36</t>
+  </si>
+  <si>
+    <t>lab3_pod2_leaf_3</t>
+  </si>
+  <si>
+    <t>192.168.122.119</t>
+  </si>
+  <si>
+    <t>S-37</t>
+  </si>
+  <si>
+    <t>S-38</t>
+  </si>
+  <si>
+    <t>lab3_pod2_leaf_4</t>
+  </si>
+  <si>
+    <t>192.168.122.120</t>
+  </si>
+  <si>
+    <t>S-40</t>
+  </si>
+  <si>
+    <t>S-39</t>
+  </si>
+  <si>
+    <t>lab3_pod2_spine_1</t>
+  </si>
+  <si>
+    <t>192.168.122.121</t>
+  </si>
+  <si>
+    <t>S-21</t>
+  </si>
+  <si>
+    <t>S-22</t>
+  </si>
+  <si>
+    <t>lab3_pod2_spine_2</t>
+  </si>
+  <si>
+    <t>192.168.122.122</t>
+  </si>
+  <si>
+    <t>S-23</t>
+  </si>
+  <si>
+    <t>S-24</t>
+  </si>
+  <si>
+    <t>lab3_superspine_1</t>
+  </si>
+  <si>
+    <t>192.168.122.123</t>
+  </si>
+  <si>
+    <t>lab3_superspine_2</t>
+  </si>
+  <si>
+    <t>192.168.122.124</t>
   </si>
 </sst>
 </file>
@@ -711,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1002,6 +1150,1036 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F0F172-4031-374B-96A8-3EF2D11C8819}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="A12:Q12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -1589,7 +2767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -2536,6 +3714,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -2545,19 +3730,12 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -2670,7 +3848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>

--- a/lab1_byot/examples/example4.xlsx
+++ b/lab1_byot/examples/example4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E01CB-1FD8-1548-989D-0AAF926D205B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EA28A7-B452-764F-8BC0-7123A40CB169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75860" yWindow="1000" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60540" yWindow="1000" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -198,202 +198,58 @@
     <t>eth2</t>
   </si>
   <si>
-    <t>S-1</t>
-  </si>
-  <si>
-    <t>S-2</t>
-  </si>
-  <si>
-    <t>S-9</t>
-  </si>
-  <si>
-    <t>S-11</t>
-  </si>
-  <si>
-    <t>S-3</t>
-  </si>
-  <si>
-    <t>S-4</t>
-  </si>
-  <si>
-    <t>S-10</t>
-  </si>
-  <si>
-    <t>S-12</t>
-  </si>
-  <si>
-    <t>S-5</t>
-  </si>
-  <si>
-    <t>S-6</t>
-  </si>
-  <si>
-    <t>S-13</t>
-  </si>
-  <si>
-    <t>S-14</t>
-  </si>
-  <si>
-    <t>S-7</t>
-  </si>
-  <si>
-    <t>S-8</t>
-  </si>
-  <si>
-    <t>S-16</t>
-  </si>
-  <si>
-    <t>S-15</t>
-  </si>
-  <si>
     <t>23.2R1.13</t>
   </si>
   <si>
     <t>ge-0/0/12</t>
   </si>
   <si>
-    <t>lab3_pod1_leaf_1</t>
-  </si>
-  <si>
-    <t>vrouter</t>
-  </si>
-  <si>
-    <t>23.2R1.14</t>
-  </si>
-  <si>
-    <t>S-25</t>
-  </si>
-  <si>
-    <t>S-26</t>
-  </si>
-  <si>
-    <t>lab3_pod1_leaf_2</t>
-  </si>
-  <si>
-    <t>S-27</t>
-  </si>
-  <si>
-    <t>S-28</t>
-  </si>
-  <si>
-    <t>lab3_pod1_leaf_3</t>
-  </si>
-  <si>
-    <t>S-29</t>
-  </si>
-  <si>
-    <t>S-30</t>
-  </si>
-  <si>
-    <t>lab3_pod1_leaf_4</t>
-  </si>
-  <si>
-    <t>S-32</t>
-  </si>
-  <si>
-    <t>S-31</t>
-  </si>
-  <si>
-    <t>lab3_pod1_spine_1</t>
-  </si>
-  <si>
-    <t>S-17</t>
-  </si>
-  <si>
-    <t>S-18</t>
-  </si>
-  <si>
-    <t>lab3_pod1_spine_2</t>
-  </si>
-  <si>
-    <t>S-19</t>
-  </si>
-  <si>
-    <t>S-20</t>
-  </si>
-  <si>
-    <t>lab3_pod2_leaf_1</t>
-  </si>
-  <si>
-    <t>192.168.122.117</t>
-  </si>
-  <si>
-    <t>S-33</t>
-  </si>
-  <si>
-    <t>S-34</t>
-  </si>
-  <si>
-    <t>lab3_pod2_leaf_2</t>
-  </si>
-  <si>
-    <t>192.168.122.118</t>
-  </si>
-  <si>
-    <t>S-35</t>
-  </si>
-  <si>
-    <t>S-36</t>
-  </si>
-  <si>
-    <t>lab3_pod2_leaf_3</t>
-  </si>
-  <si>
-    <t>192.168.122.119</t>
-  </si>
-  <si>
-    <t>S-37</t>
-  </si>
-  <si>
-    <t>S-38</t>
-  </si>
-  <si>
-    <t>lab3_pod2_leaf_4</t>
-  </si>
-  <si>
-    <t>192.168.122.120</t>
-  </si>
-  <si>
-    <t>S-40</t>
-  </si>
-  <si>
-    <t>S-39</t>
-  </si>
-  <si>
-    <t>lab3_pod2_spine_1</t>
-  </si>
-  <si>
-    <t>192.168.122.121</t>
-  </si>
-  <si>
-    <t>S-21</t>
-  </si>
-  <si>
-    <t>S-22</t>
-  </si>
-  <si>
-    <t>lab3_pod2_spine_2</t>
-  </si>
-  <si>
-    <t>192.168.122.122</t>
-  </si>
-  <si>
-    <t>S-23</t>
-  </si>
-  <si>
-    <t>S-24</t>
-  </si>
-  <si>
-    <t>lab3_superspine_1</t>
-  </si>
-  <si>
-    <t>192.168.122.123</t>
-  </si>
-  <si>
-    <t>lab3_superspine_2</t>
-  </si>
-  <si>
-    <t>192.168.122.124</t>
+    <t>D-9</t>
+  </si>
+  <si>
+    <t>D-10</t>
+  </si>
+  <si>
+    <t>D-11</t>
+  </si>
+  <si>
+    <t>D-12</t>
+  </si>
+  <si>
+    <t>D-13</t>
+  </si>
+  <si>
+    <t>D-14</t>
+  </si>
+  <si>
+    <t>D-15</t>
+  </si>
+  <si>
+    <t>D-16</t>
+  </si>
+  <si>
+    <t>D-1</t>
+  </si>
+  <si>
+    <t>D-2</t>
+  </si>
+  <si>
+    <t>D-3</t>
+  </si>
+  <si>
+    <t>D-4</t>
+  </si>
+  <si>
+    <t>D-5</t>
+  </si>
+  <si>
+    <t>D-6</t>
+  </si>
+  <si>
+    <t>D-7</t>
+  </si>
+  <si>
+    <t>D-8</t>
   </si>
 </sst>
 </file>
@@ -859,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -965,7 +821,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -983,25 +839,25 @@
         <v>59</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1153,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F0F172-4031-374B-96A8-3EF2D11C8819}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1229,13 +1085,11 @@
         <v>18</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="A2" s="14"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -1254,39 +1108,17 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1298,9 +1130,7 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>80</v>
-      </c>
+      <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1319,39 +1149,17 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1363,9 +1171,7 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>83</v>
-      </c>
+      <c r="A6" s="14"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1384,39 +1190,17 @@
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1428,9 +1212,7 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -1449,39 +1231,17 @@
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1493,9 +1253,7 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="A10" s="14"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1514,45 +1272,19 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1562,9 +1294,7 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>92</v>
-      </c>
+      <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -1583,45 +1313,19 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -1631,9 +1335,7 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>95</v>
-      </c>
+      <c r="A14" s="14"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1652,39 +1354,17 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1696,9 +1376,7 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>99</v>
-      </c>
+      <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1717,39 +1395,17 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1761,9 +1417,7 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="A18" s="14"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1782,39 +1436,17 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -1826,9 +1458,7 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1847,39 +1477,17 @@
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1891,9 +1499,7 @@
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>111</v>
-      </c>
+      <c r="A22" s="14"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1912,45 +1518,19 @@
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -1960,9 +1540,7 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -1981,45 +1559,19 @@
       <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2029,9 +1581,7 @@
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="A26" s="14"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -2050,39 +1600,17 @@
       <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>0</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2094,9 +1622,7 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>121</v>
-      </c>
+      <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -2115,39 +1641,17 @@
       <c r="Q28" s="13"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2160,6 +1664,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A14:Q14"/>
@@ -2168,12 +1678,6 @@
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="A12:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2772,7 +2276,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:L13"/>
+      <selection activeCell="A22" sqref="A22:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2902,16 +2406,16 @@
         <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>59</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -2972,16 +2476,16 @@
         <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3042,16 +2546,16 @@
         <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -3112,16 +2616,16 @@
         <v>23</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3182,16 +2686,16 @@
         <v>23</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="L11" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -3252,16 +2756,16 @@
         <v>23</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3714,13 +3218,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -3730,6 +3227,13 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lab1_byot/examples/example4.xlsx
+++ b/lab1_byot/examples/example4.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EA28A7-B452-764F-8BC0-7123A40CB169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF4D73-E0D2-7546-ABB7-4890272B2BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60540" yWindow="1000" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41280" yWindow="3300" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
-    <sheet name="VROUTER" sheetId="6" r:id="rId2"/>
-    <sheet name="VEX" sheetId="2" r:id="rId3"/>
-    <sheet name="VEVO" sheetId="3" r:id="rId4"/>
-    <sheet name="APSTRA" sheetId="4" r:id="rId5"/>
-    <sheet name="LINUX" sheetId="5" r:id="rId6"/>
+    <sheet name="VMX" sheetId="7" r:id="rId2"/>
+    <sheet name="VROUTER" sheetId="6" r:id="rId3"/>
+    <sheet name="VEX" sheetId="2" r:id="rId4"/>
+    <sheet name="VEVO" sheetId="3" r:id="rId5"/>
+    <sheet name="APSTRA" sheetId="4" r:id="rId6"/>
+    <sheet name="LINUX" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -715,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1006,6 +1007,671 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76897EFF-0AFA-AE4D-96FC-F59FE0C67D97}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A17:Q17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F0F172-4031-374B-96A8-3EF2D11C8819}">
   <dimension ref="A1:T29"/>
   <sheetViews>
@@ -1664,12 +2330,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A14:Q14"/>
@@ -1678,12 +2338,18 @@
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -2271,7 +2937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -3218,6 +3884,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -3227,19 +3900,12 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -3352,7 +4018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>

--- a/lab1_byot/examples/example4.xlsx
+++ b/lab1_byot/examples/example4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF4D73-E0D2-7546-ABB7-4890272B2BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782DB996-9379-8F4A-8CC0-283369ADF101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41280" yWindow="3300" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="1260" windowWidth="34560" windowHeight="20340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>23.2R1.15</t>
-  </si>
-  <si>
     <t>dc</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>D-8</t>
+  </si>
+  <si>
+    <t>23.2R1-S1.8</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -837,28 +837,28 @@
         <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1010,7 +1010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76897EFF-0AFA-AE4D-96FC-F59FE0C67D97}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -1654,11 +1654,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A30:Q30"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A5:Q5"/>
@@ -1666,6 +1661,11 @@
     <mergeCell ref="A11:Q11"/>
     <mergeCell ref="A14:Q14"/>
     <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1751,7 +1751,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -2330,6 +2330,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A14:Q14"/>
@@ -2338,12 +2344,6 @@
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2941,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:T22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3057,31 +3057,31 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -3127,31 +3127,31 @@
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -3197,31 +3197,31 @@
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="K7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -3267,31 +3267,31 @@
         <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -3337,31 +3337,31 @@
         <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="F11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -3407,31 +3407,31 @@
         <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3884,13 +3884,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -3900,6 +3893,13 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4052,16 +4052,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/lab1_byot/examples/example4.xlsx
+++ b/lab1_byot/examples/example4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782DB996-9379-8F4A-8CC0-283369ADF101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158AE7C0-1CB5-824A-875F-D12911FBD346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1260" windowWidth="34560" windowHeight="20340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="1260" windowWidth="34560" windowHeight="20340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>23.2R1-S1.8</t>
+  </si>
+  <si>
+    <t>lab1_apstra_server</t>
+  </si>
+  <si>
+    <t>apstra_server</t>
+  </si>
+  <si>
+    <t>4.1.2-269</t>
+  </si>
+  <si>
+    <t>192.168.122.164</t>
   </si>
 </sst>
 </file>
@@ -2330,12 +2342,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A14:Q14"/>
@@ -2344,6 +2350,12 @@
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2941,7 +2953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3884,6 +3896,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -3893,13 +3912,6 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3909,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3944,7 +3956,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
+      <c r="A2" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -3952,12 +3966,24 @@
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
